--- a/actividades_proyecto_guardia.xlsx
+++ b/actividades_proyecto_guardia.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="109">
   <si>
     <t>FECHA</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>programar los cambios que falta en el sistema de guardia, coordino juntarme con britos para ver los box de guardia en ANDES internacion</t>
+  </si>
+  <si>
+    <t>solicito 2da reunion centenario</t>
+  </si>
+  <si>
+    <t>solicito 2da reunion para continuar con los relevamientos</t>
   </si>
   <si>
     <t>Envio proceso de ovito para relevamiento</t>
@@ -1683,12 +1689,14 @@
         <v>65</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F23" s="4">
         <v>46048.0</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="4">
+        <v>46048.0</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="8"/>
       <c r="J23" s="3"/>
@@ -1728,7 +1736,9 @@
       <c r="F24" s="4">
         <v>46041.0</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="4">
+        <v>46041.0</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="5" t="s">
         <v>69</v>
@@ -1765,12 +1775,14 @@
         <v>71</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F25" s="4">
         <v>46041.0</v>
       </c>
-      <c r="G25" s="3"/>
+      <c r="G25" s="4">
+        <v>46041.0</v>
+      </c>
       <c r="H25" s="7"/>
       <c r="I25" s="8"/>
       <c r="J25" s="3"/>
@@ -2011,12 +2023,14 @@
         <v>84</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="F31" s="4">
         <v>46048.0</v>
       </c>
-      <c r="G31" s="3"/>
+      <c r="G31" s="4">
+        <v>46048.0</v>
+      </c>
       <c r="H31" s="7"/>
       <c r="I31" s="5" t="s">
         <v>85</v>
@@ -2082,15 +2096,29 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33">
-      <c r="A33" s="3"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="A33" s="4">
+        <v>46049.0</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="4">
+        <v>46049.0</v>
+      </c>
       <c r="G33" s="3"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="I33" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -28875,7 +28903,7 @@
         <v>46007.0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>16</v>
@@ -28914,13 +28942,13 @@
         <v>46006.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>48</v>
@@ -28951,7 +28979,7 @@
         <v>46007.0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>9</v>
@@ -28990,7 +29018,7 @@
         <v>46007.0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>9</v>
@@ -29029,16 +29057,16 @@
         <v>46003.0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F6" s="9">
         <v>46003.0</v>
@@ -29070,7 +29098,7 @@
         <v>46003.0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>9</v>
@@ -29079,7 +29107,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F7" s="9">
         <v>46003.0</v>
@@ -29111,16 +29139,16 @@
         <v>46006.0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F8" s="9">
         <v>46006.0</v>
@@ -29152,16 +29180,16 @@
         <v>46006.0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F9" s="9">
         <v>46006.0</v>
@@ -29193,7 +29221,7 @@
         <v>46007.0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>9</v>
@@ -29202,7 +29230,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F10" s="9">
         <v>46007.0</v>
@@ -29234,16 +29262,16 @@
         <v>46007.0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F11" s="9">
         <v>46007.0</v>
@@ -29275,16 +29303,16 @@
         <v>46007.0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F12" s="9">
         <v>46007.0</v>
@@ -29316,16 +29344,16 @@
         <v>46007.0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F13" s="9">
         <v>46013.0</v>
@@ -29357,7 +29385,7 @@
         <v>46013.0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>16</v>
@@ -29366,7 +29394,7 @@
         <v>56</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F14" s="9">
         <v>46013.0</v>
